--- a/doc/3-Space_Conquest_3012_Beyond_Earth_Scénarios_d'utilisation.xlsx
+++ b/doc/3-Space_Conquest_3012_Beyond_Earth_Scénarios_d'utilisation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B51 -Développement de systèmes\Space Conquest 3012 - Beyond Earth - The Game\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B51 -Développement de systèmes\Space Conquest 3012 - Beyond Earth - The Game\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>Humains</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Relique ramassée:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          - Vérifie les bâtiments qui donnent ressources+culture+politique</t>
   </si>
 </sst>
 </file>
@@ -740,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,324 +966,329 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="5" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>31</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>36</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>40</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>96</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>39</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>24</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>49</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C104" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>26</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>27</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>25</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C118" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>61</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
         <v>98</v>
       </c>
     </row>
